--- a/biology/Botanique/Harry_Luther/Harry_Luther.xlsx
+++ b/biology/Botanique/Harry_Luther/Harry_Luther.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry E. Luther, né en 1952 et mort le 17 octobre 2012, est un botaniste américain qui s'est spécialisé dans les Bromeliaceae et a effectué de nombreuses expéditions botaniques en Floride, au Mexique, au Panama, en Bolivie, Colombie, Équateur, au Pérou et au Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) An alphabetical list of Bromeliad binomials, éd. Bromeliad Society International, 116 pages, 2000
 (en) Harry V. Luther et David H. Benzing, Native Bromeliads of Florida, éd. Pineapple Pr Inc, 126 pages, 2009,  (ISBN 1-56164-448-X)</t>
